--- a/doc/ue_shareptr.xlsx
+++ b/doc/ue_shareptr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="多线程安全" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,62 +25,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+  <si>
+    <t>ObjectType* Object;</t>
+  </si>
+  <si>
+    <t>SharedPointerInternals::FSharedReferencer&lt; Mode &gt; SharedReferenceCount;</t>
+  </si>
+  <si>
+    <t>成员1，就是我们的对象指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理比较简单，不要与Uobject通用，因为UOBject有自己的GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又是计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SharedReferenceCount;</t>
+  </si>
+  <si>
+    <t>int32 WeakReferenceCount;</t>
+  </si>
+  <si>
+    <t>这两个就是对应的计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void DestroyObject() = 0;</t>
+  </si>
+  <si>
+    <t>这个就是销毁最前面那个object的接口，都是最简单的delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FReferenceControllerBase* ReferenceController;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！定义不是原子的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>TSharedPtr</t>
-  </si>
-  <si>
-    <t>ObjectType* Object;</t>
-  </si>
-  <si>
-    <t>SharedPointerInternals::FSharedReferencer&lt; Mode &gt; SharedReferenceCount;</t>
-  </si>
-  <si>
-    <t>成员1，就是我们的对象指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员2，计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原理比较简单，不要与Uobject通用，因为UOBject有自己的GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FReferenceControllerBase* ReferenceController;</t>
-  </si>
-  <si>
-    <t>又是计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 SharedReferenceCount;</t>
-  </si>
-  <si>
-    <t>int32 WeakReferenceCount;</t>
-  </si>
-  <si>
-    <t>这两个就是对应的计数器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual void DestroyObject() = 0;</t>
-  </si>
-  <si>
-    <t>这个就是销毁最前面那个object的接口，都是最简单的delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于多线程安全性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * ESPMode is used select between either 'fast' or 'thread safe' shared pointer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * This is only used by templates at compile time to generate one code path or another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>enum class ESPMode</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>/** Forced to be not thread-safe. */</t>
+  </si>
+  <si>
+    <t>NotThreadSafe = 0,</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Fast, doesn't ever use atomic interlocks.</t>
+  </si>
+  <si>
+    <t>Some code requires that all shared pointers are thread-safe.</t>
+  </si>
+  <si>
+    <t>It's better to change it here, instead of replacing ESPMode::Fast to ESPMode::ThreadSafe throughout the code.</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>Fast = FORCE_THREADSAFE_SHAREDPTRS ? 1 : 0,</t>
+  </si>
+  <si>
+    <t>/** Conditionally thread-safe, never spin locks, but slower */</t>
+  </si>
+  <si>
+    <t>ThreadSafe = 1</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>模式定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！只有这种模式才是线程安全，所有的COUT计数操作都进行了原子操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认情况下，计数的增加删除都是非线程安全的，所以存在多线程访问问题，所以，定义的时候需要强制说明线程安全：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;IMediaAudioSample, ESPMode::ThreadSafe&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>成员2，计数，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意这个MODE区分了是否线程安全</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef FReferenceControllerOps&lt;Mode&gt; TOps;</t>
+  </si>
+  <si>
+    <t>定义了如何操作计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( ReferenceController != nullptr )</t>
+  </si>
+  <si>
+    <t>TOps::AddSharedReference(ReferenceController);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>template&lt; ESPMode Mode &gt;</t>
+  </si>
+  <si>
+    <t>class FSharedReferencer</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOps::ReleaseWeakReference(InWeakReference.ReferenceController);</t>
+  </si>
+  <si>
+    <t>计数定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt;&gt;</t>
+  </si>
+  <si>
+    <t>struct FReferenceControllerOps&lt;ESPMode::NotThreadSafe&gt;</t>
+  </si>
+  <si>
+    <t>计数的增减修改，都是原子操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedIncrement( &amp;ReferenceController-&gt;SharedReferenceCount );</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedDecrement( &amp;ReferenceController-&gt;SharedReferenceCount )</t>
+  </si>
+  <si>
+    <t>非线程安全模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全就是简单的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>++ReferenceController-&gt;SharedReferenceCount;</t>
+  </si>
+  <si>
+    <t>--ReferenceController-&gt;SharedReferenceCount</t>
+  </si>
+  <si>
+    <t>在多线程模式下：尤其是异步的操作里面，一定要试用线程安全的Sharedptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！且不要传UOBject对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +285,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,12 +313,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,14 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:E13"/>
+  <dimension ref="A6:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
     <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
@@ -425,64 +616,347 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_shareptr.xlsx
+++ b/doc/ue_shareptr.xlsx
@@ -145,9 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TSharedPtr&lt;IMediaAudioSample, ESPMode::ThreadSafe&gt;</t>
-  </si>
-  <si>
     <r>
       <t>成员2，计数，</t>
     </r>
@@ -254,6 +251,10 @@
   </si>
   <si>
     <t>！！！且不要传UOBject对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;IMediaAudioSample, ESPMode::ThreadSafe&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +604,7 @@
   <dimension ref="A6:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -689,7 +690,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -699,20 +700,20 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -836,37 +837,37 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -876,27 +877,27 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -904,32 +905,32 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -937,22 +938,22 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
